--- a/111306095_資管二_任善研.xlsx
+++ b/111306095_資管二_任善研.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f7d04aa654b9039/桌面/計概TA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\大學相關\政大\計概\IntroToCS_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="14_{165AE3E3-C5F4-4750-ADE1-C6E7FC919D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{587E0F2B-98D1-4BA9-817F-4F94C58B35DA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680F5733-9750-4A6E-9BAE-93EF82D702E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>何大美</t>
   </si>
@@ -218,6 +237,14 @@
       </rPr>
       <t>ò</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -310,7 +337,28 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -323,37 +371,1805 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="工作表1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="15">
-          <cell r="M15" t="str">
-            <v>pass</v>
-          </cell>
-          <cell r="N15" t="str">
-            <v>fail</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="M16">
-            <v>12</v>
-          </cell>
-          <cell r="N16">
-            <v>2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$2:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>何大美</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>陳慢慢</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>黃阿坤</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>李大仁</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>陳小奇</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>羅小花</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>李小君</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>李大輝</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>白阿國</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>王小明</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>李大月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>林大義</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>宋小倫</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>許亮亮</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$J$2:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>91.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-865C-4188-BADD-4E8395D117E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="773192240"/>
+        <c:axId val="773192960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="773192240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="773192960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="773192960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="773192240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DAFA-4429-AA6B-79CBB7FA5E51}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$H$68:$H$69</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>pass</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$I$68:$I$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DAFA-4429-AA6B-79CBB7FA5E51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="22225" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD006398-048E-3DF7-2D39-0B85F3A38D3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1514474</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="圖表 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8FA8154-0F52-4ECC-6726-599387D5A50D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -653,18 +2469,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9961FA0D-67BD-4FEB-B956-7740A55D5973}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.21875" customWidth="1"/>
+    <col min="8" max="8" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.25" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
@@ -728,9 +2544,24 @@
       <c r="G2" s="1">
         <v>95</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1">
+        <f>(C2+D2+E2+F2+G2) / 5</f>
+        <v>94.4</v>
+      </c>
       <c r="I2" s="1">
         <v>89</v>
+      </c>
+      <c r="J2">
+        <f>H2/2 + I2/2</f>
+        <v>91.7</v>
+      </c>
+      <c r="K2" t="str" cm="1">
+        <f t="array" ref="K2">_xlfn.IFS(J2 &gt;= 90,"A",J2 &gt;= 80,"B",J2 &gt;= 70, "C", J2 &gt;= 60, "D", J2 &lt; 60, "F")</f>
+        <v>A</v>
+      </c>
+      <c r="L2" t="str">
+        <f>IF(J2 &gt;= 60,"pass","fail")</f>
+        <v>pass</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -755,9 +2586,24 @@
       <c r="G3" s="1">
         <v>85</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H15" si="0">(C3+D3+E3+F3+G3) / 5</f>
+        <v>86</v>
+      </c>
       <c r="I3" s="1">
         <v>94</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J15" si="1">H3/2 + I3/2</f>
+        <v>90</v>
+      </c>
+      <c r="K3" t="str" cm="1">
+        <f t="array" ref="K3">_xlfn.IFS(J3 &gt;= 90,"A",J3 &gt;= 80,"B",J3 &gt;= 70, "C", J3 &gt;= 60, "D", J3 &lt; 60, "F")</f>
+        <v>A</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L15" si="2">IF(J3 &gt;= 60,"pass","fail")</f>
+        <v>pass</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -782,9 +2628,24 @@
       <c r="G4" s="1">
         <v>85</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>82.4</v>
+      </c>
       <c r="I4" s="1">
         <v>80</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>81.2</v>
+      </c>
+      <c r="K4" t="str" cm="1">
+        <f t="array" ref="K4">_xlfn.IFS(J4 &gt;= 90,"A",J4 &gt;= 80,"B",J4 &gt;= 70, "C", J4 &gt;= 60, "D", J4 &lt; 60, "F")</f>
+        <v>B</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -809,9 +2670,24 @@
       <c r="G5" s="1">
         <v>95</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>81.599999999999994</v>
+      </c>
       <c r="I5" s="1">
         <v>80</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>80.8</v>
+      </c>
+      <c r="K5" t="str" cm="1">
+        <f t="array" ref="K5">_xlfn.IFS(J5 &gt;= 90,"A",J5 &gt;= 80,"B",J5 &gt;= 70, "C", J5 &gt;= 60, "D", J5 &lt; 60, "F")</f>
+        <v>B</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -836,9 +2712,24 @@
       <c r="G6" s="1">
         <v>73</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>81.400000000000006</v>
+      </c>
       <c r="I6" s="1">
         <v>88</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>84.7</v>
+      </c>
+      <c r="K6" t="str" cm="1">
+        <f t="array" ref="K6">_xlfn.IFS(J6 &gt;= 90,"A",J6 &gt;= 80,"B",J6 &gt;= 70, "C", J6 &gt;= 60, "D", J6 &lt; 60, "F")</f>
+        <v>B</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -863,9 +2754,24 @@
       <c r="G7" s="1">
         <v>80</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>80.599999999999994</v>
+      </c>
       <c r="I7" s="1">
         <v>81</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>80.8</v>
+      </c>
+      <c r="K7" t="str" cm="1">
+        <f t="array" ref="K7">_xlfn.IFS(J7 &gt;= 90,"A",J7 &gt;= 80,"B",J7 &gt;= 70, "C", J7 &gt;= 60, "D", J7 &lt; 60, "F")</f>
+        <v>B</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -890,9 +2796,24 @@
       <c r="G8" s="1">
         <v>89</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>78.8</v>
+      </c>
       <c r="I8" s="1">
         <v>77</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>77.900000000000006</v>
+      </c>
+      <c r="K8" t="str" cm="1">
+        <f t="array" ref="K8">_xlfn.IFS(J8 &gt;= 90,"A",J8 &gt;= 80,"B",J8 &gt;= 70, "C", J8 &gt;= 60, "D", J8 &lt; 60, "F")</f>
+        <v>C</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -917,9 +2838,24 @@
       <c r="G9" s="1">
         <v>47</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>75.400000000000006</v>
+      </c>
       <c r="I9" s="1">
         <v>73</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>74.2</v>
+      </c>
+      <c r="K9" t="str" cm="1">
+        <f t="array" ref="K9">_xlfn.IFS(J9 &gt;= 90,"A",J9 &gt;= 80,"B",J9 &gt;= 70, "C", J9 &gt;= 60, "D", J9 &lt; 60, "F")</f>
+        <v>C</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -944,9 +2880,24 @@
       <c r="G10" s="1">
         <v>97</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>73.400000000000006</v>
+      </c>
       <c r="I10" s="1">
         <v>77</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>75.2</v>
+      </c>
+      <c r="K10" t="str" cm="1">
+        <f t="array" ref="K10">_xlfn.IFS(J10 &gt;= 90,"A",J10 &gt;= 80,"B",J10 &gt;= 70, "C", J10 &gt;= 60, "D", J10 &lt; 60, "F")</f>
+        <v>C</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -971,9 +2922,24 @@
       <c r="G11" s="1">
         <v>67</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>73.2</v>
+      </c>
       <c r="I11" s="1">
         <v>82</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>77.599999999999994</v>
+      </c>
+      <c r="K11" t="str" cm="1">
+        <f t="array" ref="K11">_xlfn.IFS(J11 &gt;= 90,"A",J11 &gt;= 80,"B",J11 &gt;= 70, "C", J11 &gt;= 60, "D", J11 &lt; 60, "F")</f>
+        <v>C</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -998,9 +2964,24 @@
       <c r="G12" s="1">
         <v>82</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>73.2</v>
+      </c>
       <c r="I12" s="1">
         <v>88</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>80.599999999999994</v>
+      </c>
+      <c r="K12" t="str" cm="1">
+        <f t="array" ref="K12">_xlfn.IFS(J12 &gt;= 90,"A",J12 &gt;= 80,"B",J12 &gt;= 70, "C", J12 &gt;= 60, "D", J12 &lt; 60, "F")</f>
+        <v>B</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1025,9 +3006,24 @@
       <c r="G13" s="1">
         <v>92</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
       <c r="I13" s="1">
         <v>52</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="K13" t="str" cm="1">
+        <f t="array" ref="K13">_xlfn.IFS(J13 &gt;= 90,"A",J13 &gt;= 80,"B",J13 &gt;= 70, "C", J13 &gt;= 60, "D", J13 &lt; 60, "F")</f>
+        <v>F</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="2"/>
+        <v>fail</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1052,9 +3048,24 @@
       <c r="G14" s="1">
         <v>79</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>64.8</v>
+      </c>
       <c r="I14" s="1">
         <v>69</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>66.900000000000006</v>
+      </c>
+      <c r="K14" t="str" cm="1">
+        <f t="array" ref="K14">_xlfn.IFS(J14 &gt;= 90,"A",J14 &gt;= 80,"B",J14 &gt;= 70, "C", J14 &gt;= 60, "D", J14 &lt; 60, "F")</f>
+        <v>D</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="2"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1079,9 +3090,24 @@
       <c r="G15" s="1">
         <v>34</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>57.2</v>
+      </c>
       <c r="I15" s="1">
         <v>54</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>55.6</v>
+      </c>
+      <c r="K15" t="str" cm="1">
+        <f t="array" ref="K15">_xlfn.IFS(J15 &gt;= 90,"A",J15 &gt;= 80,"B",J15 &gt;= 70, "C", J15 &gt;= 60, "D", J15 &lt; 60, "F")</f>
+        <v>F</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="2"/>
+        <v>fail</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1101,13 +3127,58 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="10:10">
+    <row r="17" spans="3:10">
+      <c r="C17">
+        <f>LARGE(C2:C15,1)</f>
+        <v>98</v>
+      </c>
+      <c r="D17">
+        <f>LARGE(D2:D15,2)</f>
+        <v>92</v>
+      </c>
+      <c r="H17" s="1">
+        <f>COUNTIF(H2:H15,"&lt;80")</f>
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <f>SUM(J2:J15) / COUNT(J2:J15)</f>
+        <v>76.871428571428581</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
       <c r="J24" s="4" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="8:9">
+      <c r="H68" t="s">
+        <v>32</v>
+      </c>
+      <c r="I68">
+        <f>COUNTIF(L2:L15,"pass")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="8:9">
+      <c r="H69" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69">
+        <f>COUNTIF(L2:L15,"fail")</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="L2:L15">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",L2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/111306095_資管二_任善研.xlsx
+++ b/111306095_資管二_任善研.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\大學相關\政大\計概\IntroToCS_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680F5733-9750-4A6E-9BAE-93EF82D702E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5148A688-A1CE-4E7E-9209-A68D65727736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
   </bookViews>
@@ -580,7 +580,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -804,6 +804,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A62E-41F3-9470-AD9CBECD6978}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -866,7 +871,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$H$68:$H$69</c:f>
+              <c:f>工作表1!$L$18:$L$19</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -880,7 +885,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$I$68:$I$69</c:f>
+              <c:f>工作表1!$M$18:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2136,15 +2141,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1514474</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>1504949</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2469,10 +2474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9961FA0D-67BD-4FEB-B956-7740A55D5973}">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3127,7 +3132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="3:10">
+    <row r="17" spans="3:13">
       <c r="C17">
         <f>LARGE(C2:C15,1)</f>
         <v>98</v>
@@ -3145,27 +3150,27 @@
         <v>76.871428571428581</v>
       </c>
     </row>
-    <row r="24" spans="3:10">
+    <row r="18" spans="3:13">
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18">
+        <f>COUNTIF(L2:L15,"pass")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="L19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19">
+        <f>COUNTIF(L2:L15,"fail")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13">
       <c r="J24" s="4" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="8:9">
-      <c r="H68" t="s">
-        <v>32</v>
-      </c>
-      <c r="I68">
-        <f>COUNTIF(L2:L15,"pass")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="8:9">
-      <c r="H69" t="s">
-        <v>33</v>
-      </c>
-      <c r="I69">
-        <f>COUNTIF(L2:L15,"fail")</f>
-        <v>2</v>
       </c>
     </row>
   </sheetData>
